--- a/sheet/Patent/Batteries/Patent.xlsx
+++ b/sheet/Patent/Batteries/Patent.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\job\streamlit\sheet\Patent\Batteries\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C0F3133-B2A2-4D97-B81B-8E957BEF7A05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3840" yWindow="3840" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="30720" windowHeight="13380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,9 +32,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>模型</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+  <si>
+    <t>model</t>
   </si>
   <si>
     <t>发明名称</t>
@@ -49,10 +43,10 @@
     <t>技术领域</t>
   </si>
   <si>
-    <t>现有技术一的技术方案</t>
-  </si>
-  <si>
-    <t>现有技术一的缺点</t>
+    <t>现有技术的技术方案</t>
+  </si>
+  <si>
+    <t>现有技术的缺陷</t>
   </si>
   <si>
     <t>与本发明相关的现有技术二</t>
@@ -64,13 +58,19 @@
     <t>本发明提供的完整技术方案</t>
   </si>
   <si>
+    <t>本发明的实施例</t>
+  </si>
+  <si>
+    <t>本发明技术方案取得的技术进步</t>
+  </si>
+  <si>
     <t>本发明技术方案带来的有益效果</t>
   </si>
   <si>
-    <t>针对本发明提供的完整技术方案中的技术方案</t>
-  </si>
-  <si>
-    <t>是否还有别的替代方案同样能完成发明目的</t>
+    <t>本发明技术方案带来有益效果的原因</t>
+  </si>
+  <si>
+    <t>是否还有其他替代方案同样能完成发明目的</t>
   </si>
   <si>
     <t>本发明的技术关键点和欲保护点是什么</t>
@@ -79,20 +79,26 @@
     <t>总分</t>
   </si>
   <si>
+    <t>qwen:4b</t>
+  </si>
+  <si>
+    <t>llama3：latese</t>
+  </si>
+  <si>
     <t>llama3_chinese</t>
-  </si>
-  <si>
-    <t>qwen:14b</t>
-  </si>
-  <si>
-    <t>llama3：latese</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,24 +119,348 @@
       <sz val="9.5"/>
       <color rgb="FF31333F"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -138,9 +468,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -155,17 +727,61 @@
       <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -415,29 +1031,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" customWidth="1"/>
-    <col min="9" max="9" width="10.5546875" customWidth="1"/>
-    <col min="10" max="11" width="14.44140625" customWidth="1"/>
-    <col min="12" max="12" width="12.33203125" customWidth="1"/>
+    <col min="1" max="1" width="16.4444444444444" customWidth="1"/>
+    <col min="2" max="2" width="8.33333333333333" customWidth="1"/>
+    <col min="4" max="4" width="9.55555555555556" customWidth="1"/>
+    <col min="10" max="10" width="10.6666666666667" customWidth="1"/>
+    <col min="11" max="11" width="10.5555555555556" customWidth="1"/>
+    <col min="12" max="12" width="12.2222222222222" customWidth="1"/>
+    <col min="13" max="13" width="14.4444444444444" customWidth="1"/>
+    <col min="14" max="14" width="12.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="37.799999999999997" x14ac:dyDescent="0.25">
+    <row r="1" ht="34.2" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -474,31 +1092,37 @@
       <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>10</v>
@@ -507,135 +1131,164 @@
         <v>10</v>
       </c>
       <c r="J2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>9.36</v>
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>3.85</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>9</v>
       </c>
       <c r="E3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3">
         <v>8</v>
       </c>
       <c r="G3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L3">
         <v>9</v>
       </c>
       <c r="M3">
-        <v>8.82</v>
+        <v>9</v>
+      </c>
+      <c r="N3">
+        <v>10</v>
+      </c>
+      <c r="O3">
+        <v>9.46</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
         <v>8</v>
       </c>
-      <c r="C4">
+      <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="H4">
         <v>8</v>
-      </c>
-      <c r="D4">
-        <v>7</v>
-      </c>
-      <c r="E4">
-        <v>8</v>
-      </c>
-      <c r="F4">
-        <v>6</v>
-      </c>
-      <c r="G4">
-        <v>9</v>
-      </c>
-      <c r="H4">
-        <v>9</v>
       </c>
       <c r="I4">
         <v>9</v>
       </c>
       <c r="J4">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M4">
-        <v>8.18</v>
+        <v>10</v>
+      </c>
+      <c r="N4">
+        <v>10</v>
+      </c>
+      <c r="O4">
+        <v>9.69</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M4" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M5">
-    <sortCondition ref="M2:M5"/>
+  <autoFilter ref="A1:O4">
+    <sortState ref="A1:O4">
+      <sortCondition ref="O1"/>
+    </sortState>
+    <extLst/>
+  </autoFilter>
+  <sortState ref="A2:O5">
+    <sortCondition ref="O2:O5"/>
   </sortState>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/sheet/Patent/Batteries/Patent.xlsx
+++ b/sheet/Patent/Batteries/Patent.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>model</t>
   </si>
@@ -86,6 +86,12 @@
   </si>
   <si>
     <t>llama3_chinese</t>
+  </si>
+  <si>
+    <t>ChatGPT-4</t>
+  </si>
+  <si>
+    <t>ChatGPT-4o</t>
   </si>
 </sst>
 </file>
@@ -1037,13 +1043,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="16.4444444444444" customWidth="1"/>
     <col min="2" max="2" width="8.33333333333333" customWidth="1"/>
@@ -1110,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1143,10 +1149,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O2">
-        <v>3.85</v>
+        <v>4.23</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1154,46 +1160,46 @@
         <v>16</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3">
+        <v>6</v>
+      </c>
+      <c r="G3">
+        <v>9</v>
+      </c>
+      <c r="H3">
+        <v>10</v>
+      </c>
+      <c r="I3">
         <v>8</v>
       </c>
-      <c r="G3">
-        <v>10</v>
-      </c>
-      <c r="H3">
-        <v>10</v>
-      </c>
-      <c r="I3">
-        <v>7</v>
-      </c>
       <c r="J3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L3">
         <v>9</v>
       </c>
       <c r="M3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O3">
-        <v>9.46</v>
+        <v>8.38</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -1201,7 +1207,7 @@
         <v>17</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>10</v>
@@ -1213,39 +1219,133 @@
         <v>10</v>
       </c>
       <c r="F4">
+        <v>7</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="H4">
+        <v>10</v>
+      </c>
+      <c r="I4">
+        <v>9</v>
+      </c>
+      <c r="J4">
+        <v>10</v>
+      </c>
+      <c r="K4">
+        <v>10</v>
+      </c>
+      <c r="L4">
+        <v>10</v>
+      </c>
+      <c r="M4">
         <v>8</v>
       </c>
-      <c r="G4">
-        <v>10</v>
-      </c>
-      <c r="H4">
+      <c r="N4">
+        <v>9</v>
+      </c>
+      <c r="O4">
+        <v>9.15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
         <v>8</v>
       </c>
-      <c r="I4">
-        <v>9</v>
-      </c>
-      <c r="J4">
-        <v>10</v>
-      </c>
-      <c r="K4">
-        <v>10</v>
-      </c>
-      <c r="L4">
-        <v>10</v>
-      </c>
-      <c r="M4">
-        <v>10</v>
-      </c>
-      <c r="N4">
-        <v>10</v>
-      </c>
-      <c r="O4">
+      <c r="E5">
+        <v>9</v>
+      </c>
+      <c r="F5">
+        <v>7</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>10</v>
+      </c>
+      <c r="I5">
+        <v>9</v>
+      </c>
+      <c r="J5">
+        <v>10</v>
+      </c>
+      <c r="K5">
+        <v>10</v>
+      </c>
+      <c r="L5">
+        <v>10</v>
+      </c>
+      <c r="M5">
+        <v>9</v>
+      </c>
+      <c r="N5">
+        <v>10</v>
+      </c>
+      <c r="O5">
+        <v>9.54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>8</v>
+      </c>
+      <c r="G6">
+        <v>10</v>
+      </c>
+      <c r="H6">
+        <v>10</v>
+      </c>
+      <c r="I6">
+        <v>10</v>
+      </c>
+      <c r="J6">
+        <v>10</v>
+      </c>
+      <c r="K6">
+        <v>10</v>
+      </c>
+      <c r="L6">
+        <v>10</v>
+      </c>
+      <c r="M6">
+        <v>9</v>
+      </c>
+      <c r="N6">
+        <v>10</v>
+      </c>
+      <c r="O6">
         <v>9.69</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O4">
-    <sortState ref="A1:O4">
+  <autoFilter ref="A1:O6">
+    <sortState ref="A2:O6">
       <sortCondition ref="O1"/>
     </sortState>
     <extLst/>

--- a/sheet/Patent/Batteries/Patent.xlsx
+++ b/sheet/Patent/Batteries/Patent.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$S$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>model</t>
   </si>
@@ -43,19 +43,31 @@
     <t>技术领域</t>
   </si>
   <si>
-    <t>现有技术的技术方案</t>
-  </si>
-  <si>
-    <t>现有技术的缺陷</t>
+    <t>相关技术背景（背景技术），与本发明最相近似的现有实现方案（现有技术）</t>
+  </si>
+  <si>
+    <t>现有技术的一技术方案</t>
+  </si>
+  <si>
+    <t>现有技术一的缺点</t>
   </si>
   <si>
     <t>与本发明相关的现有技术二</t>
   </si>
   <si>
+    <t>现有技术二的技术方案</t>
+  </si>
+  <si>
+    <t>现有技术二的缺点</t>
+  </si>
+  <si>
     <t>本发明所要解决的技术问题</t>
   </si>
   <si>
     <t>本发明提供的完整技术方案</t>
+  </si>
+  <si>
+    <t>附图说明</t>
   </si>
   <si>
     <t>本发明的实施例</t>
@@ -104,7 +116,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,6 +137,13 @@
       <sz val="9.5"/>
       <color rgb="FF31333F"/>
       <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9.5"/>
+      <color rgb="FF31333F"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -592,137 +611,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -730,6 +749,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1043,25 +1065,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="16.4444444444444" customWidth="1"/>
     <col min="2" max="2" width="8.33333333333333" customWidth="1"/>
-    <col min="4" max="4" width="9.55555555555556" customWidth="1"/>
-    <col min="10" max="10" width="10.6666666666667" customWidth="1"/>
-    <col min="11" max="11" width="10.5555555555556" customWidth="1"/>
-    <col min="12" max="12" width="12.2222222222222" customWidth="1"/>
-    <col min="13" max="13" width="14.4444444444444" customWidth="1"/>
-    <col min="14" max="14" width="12.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="14.5555555555556" customWidth="1"/>
+    <col min="5" max="5" width="9.55555555555556" customWidth="1"/>
+    <col min="14" max="14" width="10.6666666666667" customWidth="1"/>
+    <col min="15" max="15" width="10.5555555555556" customWidth="1"/>
+    <col min="16" max="16" width="12.2222222222222" customWidth="1"/>
+    <col min="17" max="17" width="14.4444444444444" customWidth="1"/>
+    <col min="18" max="18" width="12.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="34.2" spans="1:15">
+    <row r="1" ht="57" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1074,10 +1097,10 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -1104,13 +1127,25 @@
       <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1118,9 +1153,6 @@
       <c r="C2">
         <v>10</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
       <c r="E2">
         <v>0</v>
       </c>
@@ -1130,114 +1162,129 @@
       <c r="G2">
         <v>0</v>
       </c>
-      <c r="H2">
-        <v>10</v>
-      </c>
-      <c r="I2">
-        <v>10</v>
-      </c>
       <c r="J2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>10</v>
       </c>
-      <c r="L2">
+      <c r="M2">
+        <v>10</v>
+      </c>
+      <c r="N2">
+        <v>10</v>
+      </c>
+      <c r="O2">
+        <v>10</v>
+      </c>
+      <c r="P2">
         <v>0</v>
       </c>
-      <c r="M2">
+      <c r="Q2">
         <v>0</v>
       </c>
-      <c r="N2">
+      <c r="R2">
         <v>5</v>
       </c>
-      <c r="O2">
+      <c r="S2">
         <v>4.23</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>10</v>
+      </c>
+      <c r="I3">
+        <v>10</v>
+      </c>
+      <c r="J3">
+        <v>10</v>
+      </c>
+      <c r="K3">
+        <v>10</v>
+      </c>
+      <c r="L3">
+        <v>10</v>
+      </c>
+      <c r="M3">
+        <v>10</v>
+      </c>
+      <c r="N3">
+        <v>10</v>
+      </c>
+      <c r="O3">
+        <v>10</v>
+      </c>
+      <c r="P3">
+        <v>10</v>
+      </c>
+      <c r="Q3">
+        <v>9</v>
+      </c>
+      <c r="R3">
+        <v>9</v>
+      </c>
+      <c r="S3">
+        <v>9.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
         <v>8</v>
       </c>
-      <c r="C3">
+      <c r="E4">
         <v>9</v>
       </c>
-      <c r="D3">
-        <v>7</v>
-      </c>
-      <c r="E3">
+      <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="G4">
         <v>9</v>
       </c>
-      <c r="F3">
-        <v>6</v>
-      </c>
-      <c r="G3">
+      <c r="H4">
+        <v>10</v>
+      </c>
+      <c r="I4">
+        <v>10</v>
+      </c>
+      <c r="J4">
+        <v>10</v>
+      </c>
+      <c r="K4">
         <v>9</v>
       </c>
-      <c r="H3">
-        <v>10</v>
-      </c>
-      <c r="I3">
+      <c r="L4">
         <v>8</v>
-      </c>
-      <c r="J3">
-        <v>9</v>
-      </c>
-      <c r="K3">
-        <v>9</v>
-      </c>
-      <c r="L3">
-        <v>9</v>
-      </c>
-      <c r="M3">
-        <v>8</v>
-      </c>
-      <c r="N3">
-        <v>9</v>
-      </c>
-      <c r="O3">
-        <v>8.38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>10</v>
-      </c>
-      <c r="D4">
-        <v>9</v>
-      </c>
-      <c r="E4">
-        <v>10</v>
-      </c>
-      <c r="F4">
-        <v>7</v>
-      </c>
-      <c r="G4">
-        <v>10</v>
-      </c>
-      <c r="H4">
-        <v>10</v>
-      </c>
-      <c r="I4">
-        <v>9</v>
-      </c>
-      <c r="J4">
-        <v>10</v>
-      </c>
-      <c r="K4">
-        <v>10</v>
-      </c>
-      <c r="L4">
-        <v>10</v>
       </c>
       <c r="M4">
         <v>8</v>
@@ -1246,12 +1293,24 @@
         <v>9</v>
       </c>
       <c r="O4">
-        <v>9.15</v>
+        <v>10</v>
+      </c>
+      <c r="P4">
+        <v>10</v>
+      </c>
+      <c r="Q4">
+        <v>9</v>
+      </c>
+      <c r="R4">
+        <v>7</v>
+      </c>
+      <c r="S4">
+        <v>9.1</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:19">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B5">
         <v>10</v>
@@ -1259,31 +1318,19 @@
       <c r="C5">
         <v>10</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>8</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>9</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>7</v>
       </c>
-      <c r="G5">
-        <v>10</v>
-      </c>
-      <c r="H5">
-        <v>10</v>
-      </c>
-      <c r="I5">
-        <v>9</v>
-      </c>
       <c r="J5">
         <v>10</v>
       </c>
       <c r="K5">
-        <v>10</v>
-      </c>
-      <c r="L5">
         <v>10</v>
       </c>
       <c r="M5">
@@ -1293,12 +1340,24 @@
         <v>10</v>
       </c>
       <c r="O5">
+        <v>10</v>
+      </c>
+      <c r="P5">
+        <v>10</v>
+      </c>
+      <c r="Q5">
+        <v>9</v>
+      </c>
+      <c r="R5">
+        <v>10</v>
+      </c>
+      <c r="S5">
         <v>9.54</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:19">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B6">
         <v>10</v>
@@ -1306,52 +1365,52 @@
       <c r="C6">
         <v>10</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>9</v>
       </c>
-      <c r="E6">
-        <v>10</v>
-      </c>
       <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="G6">
         <v>8</v>
       </c>
-      <c r="G6">
-        <v>10</v>
-      </c>
-      <c r="H6">
-        <v>10</v>
-      </c>
-      <c r="I6">
-        <v>10</v>
-      </c>
       <c r="J6">
         <v>10</v>
       </c>
       <c r="K6">
         <v>10</v>
       </c>
-      <c r="L6">
-        <v>10</v>
-      </c>
       <c r="M6">
+        <v>10</v>
+      </c>
+      <c r="N6">
+        <v>10</v>
+      </c>
+      <c r="O6">
+        <v>10</v>
+      </c>
+      <c r="P6">
+        <v>10</v>
+      </c>
+      <c r="Q6">
         <v>9</v>
       </c>
-      <c r="N6">
-        <v>10</v>
-      </c>
-      <c r="O6">
+      <c r="R6">
+        <v>10</v>
+      </c>
+      <c r="S6">
         <v>9.69</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O6">
-    <sortState ref="A2:O6">
-      <sortCondition ref="O1"/>
+  <autoFilter ref="A1:S6">
+    <sortState ref="A1:S6">
+      <sortCondition ref="S1"/>
     </sortState>
     <extLst/>
   </autoFilter>
-  <sortState ref="A2:O5">
-    <sortCondition ref="O2:O5"/>
+  <sortState ref="A2:S5">
+    <sortCondition ref="S2:S5"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
